--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H2">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I2">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J2">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.8070074854402</v>
+        <v>94.81147350000001</v>
       </c>
       <c r="N2">
-        <v>94.8070074854402</v>
+        <v>189.622947</v>
       </c>
       <c r="O2">
-        <v>0.6484961404762909</v>
+        <v>0.6448118471026588</v>
       </c>
       <c r="P2">
-        <v>0.6484961404762909</v>
+        <v>0.5478387621460925</v>
       </c>
       <c r="Q2">
-        <v>1129.351300681991</v>
+        <v>1181.104955640092</v>
       </c>
       <c r="R2">
-        <v>1129.351300681991</v>
+        <v>7086.629733840553</v>
       </c>
       <c r="S2">
-        <v>0.5128817391194169</v>
+        <v>0.4436123383534506</v>
       </c>
       <c r="T2">
-        <v>0.5128817391194169</v>
+        <v>0.4187522136889366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H3">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I3">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J3">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>51.2239212974518</v>
+        <v>0.038383</v>
       </c>
       <c r="N3">
-        <v>51.2239212974518</v>
+        <v>0.115149</v>
       </c>
       <c r="O3">
-        <v>0.3503803794942082</v>
+        <v>0.0002610423845732273</v>
       </c>
       <c r="P3">
-        <v>0.3503803794942082</v>
+        <v>0.0003326764329971119</v>
       </c>
       <c r="Q3">
-        <v>610.1848763889453</v>
+        <v>0.4781525889093334</v>
       </c>
       <c r="R3">
-        <v>610.1848763889453</v>
+        <v>4.303373300184</v>
       </c>
       <c r="S3">
-        <v>0.2771083545020432</v>
+        <v>0.0001795897875484499</v>
       </c>
       <c r="T3">
-        <v>0.2771083545020432</v>
+        <v>0.0002542883096003531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,247 +652,991 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H4">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I4">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J4">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.164247360806803</v>
+        <v>0.04220533333333334</v>
       </c>
       <c r="N4">
-        <v>0.164247360806803</v>
+        <v>0.126616</v>
       </c>
       <c r="O4">
-        <v>0.001123480029500838</v>
+        <v>0.0002870380338962888</v>
       </c>
       <c r="P4">
-        <v>0.001123480029500838</v>
+        <v>0.0003658056886326613</v>
       </c>
       <c r="Q4">
-        <v>1.956532280477622</v>
+        <v>0.5257689445617778</v>
       </c>
       <c r="R4">
-        <v>1.956532280477622</v>
+        <v>4.731920501056001</v>
       </c>
       <c r="S4">
-        <v>0.0008885363465280181</v>
+        <v>0.0001974740600459799</v>
       </c>
       <c r="T4">
-        <v>0.0008885363465280181</v>
+        <v>0.0002796113610049441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.1497580347468</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H5">
-        <v>3.1497580347468</v>
+        <v>37.372216</v>
       </c>
       <c r="I5">
-        <v>0.2091213700320118</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J5">
-        <v>0.2091213700320118</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>94.8070074854402</v>
+        <v>0.113114</v>
       </c>
       <c r="N5">
-        <v>94.8070074854402</v>
+        <v>0.339342</v>
       </c>
       <c r="O5">
-        <v>0.6484961404762909</v>
+        <v>0.0007692871398435774</v>
       </c>
       <c r="P5">
-        <v>0.6484961404762909</v>
+        <v>0.0009803913722751039</v>
       </c>
       <c r="Q5">
-        <v>298.6191335775653</v>
+        <v>1.409106946874667</v>
       </c>
       <c r="R5">
-        <v>298.6191335775653</v>
+        <v>12.681962521872</v>
       </c>
       <c r="S5">
-        <v>0.1356144013568739</v>
+        <v>0.0005292478240042562</v>
       </c>
       <c r="T5">
-        <v>0.1356144013568739</v>
+        <v>0.0007493830042501717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.1497580347468</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H6">
-        <v>3.1497580347468</v>
+        <v>37.372216</v>
       </c>
       <c r="I6">
-        <v>0.2091213700320118</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J6">
-        <v>0.2091213700320118</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.2239212974518</v>
+        <v>51.860565</v>
       </c>
       <c r="N6">
-        <v>51.2239212974518</v>
+        <v>155.581695</v>
       </c>
       <c r="O6">
-        <v>0.3503803794942082</v>
+        <v>0.3527031642371584</v>
       </c>
       <c r="P6">
-        <v>0.3503803794942082</v>
+        <v>0.4494903414901093</v>
       </c>
       <c r="Q6">
-        <v>161.3429576778865</v>
+        <v>646.04807902068</v>
       </c>
       <c r="R6">
-        <v>161.3429576778865</v>
+        <v>5814.43271118612</v>
       </c>
       <c r="S6">
-        <v>0.07327202499216504</v>
+        <v>0.2426498150351087</v>
       </c>
       <c r="T6">
-        <v>0.07327202499216504</v>
+        <v>0.3435775058950378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.45740533333333</v>
+      </c>
+      <c r="H7">
+        <v>37.372216</v>
+      </c>
+      <c r="I7">
+        <v>0.6879717553992525</v>
+      </c>
+      <c r="J7">
+        <v>0.7643712760457567</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.171684</v>
+      </c>
+      <c r="N7">
+        <v>0.343368</v>
+      </c>
+      <c r="O7">
+        <v>0.001167621101869837</v>
+      </c>
+      <c r="P7">
+        <v>0.0009920228698933756</v>
+      </c>
+      <c r="Q7">
+        <v>2.138737177248</v>
+      </c>
+      <c r="R7">
+        <v>12.832423063488</v>
+      </c>
+      <c r="S7">
+        <v>0.0008032903390946013</v>
+      </c>
+      <c r="T7">
+        <v>0.0007582737869269732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.66142</v>
+      </c>
+      <c r="I8">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J8">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>94.81147350000001</v>
+      </c>
+      <c r="N8">
+        <v>189.622947</v>
+      </c>
+      <c r="O8">
+        <v>0.6448118471026588</v>
+      </c>
+      <c r="P8">
+        <v>0.5478387621460925</v>
+      </c>
+      <c r="Q8">
+        <v>20.90340160079</v>
+      </c>
+      <c r="R8">
+        <v>125.42040960474</v>
+      </c>
+      <c r="S8">
+        <v>0.007851128571924642</v>
+      </c>
+      <c r="T8">
+        <v>0.007411149747666459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.66142</v>
+      </c>
+      <c r="I9">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J9">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.038383</v>
+      </c>
+      <c r="N9">
+        <v>0.115149</v>
+      </c>
+      <c r="O9">
+        <v>0.0002610423845732273</v>
+      </c>
+      <c r="P9">
+        <v>0.0003326764329971119</v>
+      </c>
+      <c r="Q9">
+        <v>0.008462427953333334</v>
+      </c>
+      <c r="R9">
+        <v>0.07616185158</v>
+      </c>
+      <c r="S9">
+        <v>3.178411397394678E-06</v>
+      </c>
+      <c r="T9">
+        <v>4.500438875122244E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.66142</v>
+      </c>
+      <c r="I10">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J10">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04220533333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.126616</v>
+      </c>
+      <c r="O10">
+        <v>0.0002870380338962888</v>
+      </c>
+      <c r="P10">
+        <v>0.0003658056886326613</v>
+      </c>
+      <c r="Q10">
+        <v>0.009305150524444444</v>
+      </c>
+      <c r="R10">
+        <v>0.08374635472</v>
+      </c>
+      <c r="S10">
+        <v>3.494930372756382E-06</v>
+      </c>
+      <c r="T10">
+        <v>4.948610657604305E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.66142</v>
+      </c>
+      <c r="I11">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J11">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.113114</v>
+      </c>
+      <c r="N11">
+        <v>0.339342</v>
+      </c>
+      <c r="O11">
+        <v>0.0007692871398435774</v>
+      </c>
+      <c r="P11">
+        <v>0.0009803913722751039</v>
+      </c>
+      <c r="Q11">
+        <v>0.02493862062666666</v>
+      </c>
+      <c r="R11">
+        <v>0.22444758564</v>
+      </c>
+      <c r="S11">
+        <v>9.366720339861437E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.326271117214854E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.66142</v>
+      </c>
+      <c r="I12">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J12">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>51.860565</v>
+      </c>
+      <c r="N12">
+        <v>155.581695</v>
+      </c>
+      <c r="O12">
+        <v>0.3527031642371584</v>
+      </c>
+      <c r="P12">
+        <v>0.4494903414901093</v>
+      </c>
+      <c r="Q12">
+        <v>11.4338716341</v>
+      </c>
+      <c r="R12">
+        <v>102.9048447069</v>
+      </c>
+      <c r="S12">
+        <v>0.004294458767457664</v>
+      </c>
+      <c r="T12">
+        <v>0.006080694651585442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.66142</v>
+      </c>
+      <c r="I13">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J13">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.171684</v>
+      </c>
+      <c r="N13">
+        <v>0.343368</v>
+      </c>
+      <c r="O13">
+        <v>0.001167621101869837</v>
+      </c>
+      <c r="P13">
+        <v>0.0009920228698933756</v>
+      </c>
+      <c r="Q13">
+        <v>0.03785174376</v>
+      </c>
+      <c r="R13">
+        <v>0.22711046256</v>
+      </c>
+      <c r="S13">
+        <v>1.421677259073829E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.342006179535189E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.4295585</v>
+      </c>
+      <c r="H14">
+        <v>10.859117</v>
+      </c>
+      <c r="I14">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J14">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>94.81147350000001</v>
+      </c>
+      <c r="N14">
+        <v>189.622947</v>
+      </c>
+      <c r="O14">
+        <v>0.6448118471026588</v>
+      </c>
+      <c r="P14">
+        <v>0.5478387621460925</v>
+      </c>
+      <c r="Q14">
+        <v>514.7844418394498</v>
+      </c>
+      <c r="R14">
+        <v>2059.137767357799</v>
+      </c>
+      <c r="S14">
+        <v>0.1933483801772836</v>
+      </c>
+      <c r="T14">
+        <v>0.1216753987094895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.4295585</v>
+      </c>
+      <c r="H15">
+        <v>10.859117</v>
+      </c>
+      <c r="I15">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J15">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.038383</v>
+      </c>
+      <c r="N15">
+        <v>0.115149</v>
+      </c>
+      <c r="O15">
+        <v>0.0002610423845732273</v>
+      </c>
+      <c r="P15">
+        <v>0.0003326764329971119</v>
+      </c>
+      <c r="Q15">
+        <v>0.2084027439055</v>
+      </c>
+      <c r="R15">
+        <v>1.250416463433</v>
+      </c>
+      <c r="S15">
+        <v>7.827418562738269E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.388768452163654E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.4295585</v>
+      </c>
+      <c r="H16">
+        <v>10.859117</v>
+      </c>
+      <c r="I16">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J16">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04220533333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.126616</v>
+      </c>
+      <c r="O16">
+        <v>0.0002870380338962888</v>
+      </c>
+      <c r="P16">
+        <v>0.0003658056886326613</v>
+      </c>
+      <c r="Q16">
+        <v>0.2291563263453333</v>
+      </c>
+      <c r="R16">
+        <v>1.374937958072</v>
+      </c>
+      <c r="S16">
+        <v>8.606904347755246E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.124571697011292E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.4295585</v>
+      </c>
+      <c r="H17">
+        <v>10.859117</v>
+      </c>
+      <c r="I17">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J17">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.113114</v>
+      </c>
+      <c r="N17">
+        <v>0.339342</v>
+      </c>
+      <c r="O17">
+        <v>0.0007692871398435774</v>
+      </c>
+      <c r="P17">
+        <v>0.0009803913722751039</v>
+      </c>
+      <c r="Q17">
+        <v>0.6141590801689999</v>
+      </c>
+      <c r="R17">
+        <v>3.684954481014</v>
+      </c>
+      <c r="S17">
+        <v>0.0002306725954994598</v>
+      </c>
+      <c r="T17">
+        <v>0.0002177456568527837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="H7">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="I7">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="J7">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.164247360806803</v>
-      </c>
-      <c r="N7">
-        <v>0.164247360806803</v>
-      </c>
-      <c r="O7">
-        <v>0.001123480029500838</v>
-      </c>
-      <c r="P7">
-        <v>0.001123480029500838</v>
-      </c>
-      <c r="Q7">
-        <v>0.5173394443871844</v>
-      </c>
-      <c r="R7">
-        <v>0.5173394443871844</v>
-      </c>
-      <c r="S7">
-        <v>0.0002349436829728204</v>
-      </c>
-      <c r="T7">
-        <v>0.0002349436829728204</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.4295585</v>
+      </c>
+      <c r="H18">
+        <v>10.859117</v>
+      </c>
+      <c r="I18">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J18">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.860565</v>
+      </c>
+      <c r="N18">
+        <v>155.581695</v>
+      </c>
+      <c r="O18">
+        <v>0.3527031642371584</v>
+      </c>
+      <c r="P18">
+        <v>0.4494903414901093</v>
+      </c>
+      <c r="Q18">
+        <v>281.5799715105525</v>
+      </c>
+      <c r="R18">
+        <v>1689.479829063315</v>
+      </c>
+      <c r="S18">
+        <v>0.105758890434592</v>
+      </c>
+      <c r="T18">
+        <v>0.09983214094348607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.4295585</v>
+      </c>
+      <c r="H19">
+        <v>10.859117</v>
+      </c>
+      <c r="I19">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J19">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.171684</v>
+      </c>
+      <c r="N19">
+        <v>0.343368</v>
+      </c>
+      <c r="O19">
+        <v>0.001167621101869837</v>
+      </c>
+      <c r="P19">
+        <v>0.0009920228698933756</v>
+      </c>
+      <c r="Q19">
+        <v>0.932168321514</v>
+      </c>
+      <c r="R19">
+        <v>3.728673286056</v>
+      </c>
+      <c r="S19">
+        <v>0.0003501139901844976</v>
+      </c>
+      <c r="T19">
+        <v>0.0002203290211710505</v>
       </c>
     </row>
   </sheetData>
